--- a/SCCO.WPF.MVC.CSHARP/ReportFiles/template_financial_statement_reports.xlsx
+++ b/SCCO.WPF.MVC.CSHARP/ReportFiles/template_financial_statement_reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Condition - Summary" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="666">
   <si>
     <t>ASSETS</t>
   </si>
@@ -2005,6 +2005,15 @@
   </si>
   <si>
     <t>STATEMENT OF FINANCIAL CONDITION</t>
+  </si>
+  <si>
+    <t>StartRow</t>
+  </si>
+  <si>
+    <t>EndRow</t>
+  </si>
+  <si>
+    <t>ProcessCodes</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2024,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,26 +2144,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -2245,27 +2234,58 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <i/>
       <u val="singleAccounting"/>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <i/>
       <u val="doubleAccounting"/>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2583,7 +2603,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2821,22 +2841,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2849,81 +2862,63 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2936,6 +2931,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3256,29 +3284,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="154" t="s">
         <v>491</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="E1" s="168"/>
+      <c r="E1" s="155"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="154" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="E2" s="168"/>
+      <c r="E2" s="155"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="91"/>
       <c r="B3" s="90"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="169"/>
+      <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
@@ -3294,7 +3322,7 @@
       <c r="B5" s="91"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
-      <c r="E5" s="170"/>
+      <c r="E5" s="157"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
@@ -3303,12 +3331,12 @@
       <c r="B6" s="91"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="170"/>
+      <c r="E6" s="157"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="68"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="124"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="7"/>
       <c r="E7" s="9"/>
     </row>
@@ -3623,7 +3651,7 @@
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="124"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="7"/>
       <c r="E34" s="83"/>
     </row>
@@ -3846,7 +3874,7 @@
     <row r="54" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99"/>
       <c r="B54" s="99"/>
-      <c r="C54" s="124"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="7"/>
       <c r="E54" s="9"/>
     </row>
@@ -3875,7 +3903,7 @@
       <c r="B57" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="124"/>
+      <c r="C57" s="119"/>
       <c r="D57" s="4">
         <v>7</v>
       </c>
@@ -3889,7 +3917,7 @@
       <c r="B58" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="124"/>
+      <c r="C58" s="119"/>
       <c r="D58" s="4">
         <v>8</v>
       </c>
@@ -3903,7 +3931,7 @@
       <c r="B59" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="124"/>
+      <c r="C59" s="119"/>
       <c r="D59" s="4">
         <v>9</v>
       </c>
@@ -3917,7 +3945,7 @@
       <c r="B60" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="124"/>
+      <c r="C60" s="119"/>
       <c r="D60" s="4"/>
       <c r="E60" s="10">
         <f>'Condition - Details'!F176</f>
@@ -3929,7 +3957,7 @@
       <c r="B61" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="124"/>
+      <c r="C61" s="119"/>
       <c r="D61" s="4"/>
       <c r="E61" s="10">
         <f>'Condition - Details'!F176</f>
@@ -3941,7 +3969,7 @@
       <c r="B62" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="124"/>
+      <c r="C62" s="119"/>
       <c r="D62" s="4"/>
       <c r="E62" s="10">
         <f>'Condition - Details'!F177</f>
@@ -3953,7 +3981,7 @@
       <c r="B63" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="124"/>
+      <c r="C63" s="119"/>
       <c r="D63" s="4"/>
       <c r="E63" s="10">
         <f>'Condition - Details'!F178</f>
@@ -3965,7 +3993,7 @@
       <c r="B64" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="124"/>
+      <c r="C64" s="119"/>
       <c r="D64" s="4"/>
       <c r="E64" s="10">
         <f>'Condition - Details'!F179</f>
@@ -3977,7 +4005,7 @@
       <c r="B65" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="124"/>
+      <c r="C65" s="119"/>
       <c r="D65" s="4"/>
       <c r="E65" s="10">
         <f>'Condition - Details'!F180</f>
@@ -3989,7 +4017,7 @@
       <c r="B66" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="124"/>
+      <c r="C66" s="119"/>
       <c r="D66" s="4"/>
       <c r="E66" s="10">
         <f>'Condition - Details'!F181</f>
@@ -4001,7 +4029,7 @@
       <c r="B67" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="124"/>
+      <c r="C67" s="119"/>
       <c r="D67" s="4"/>
       <c r="E67" s="10">
         <f>'Condition - Details'!F182</f>
@@ -4158,7 +4186,7 @@
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="93"/>
       <c r="B81" s="32"/>
-      <c r="C81" s="124"/>
+      <c r="C81" s="119"/>
       <c r="D81" s="4"/>
       <c r="E81" s="10"/>
     </row>
@@ -4174,7 +4202,7 @@
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="93"/>
       <c r="B83" s="32"/>
-      <c r="C83" s="124"/>
+      <c r="C83" s="119"/>
       <c r="D83" s="4"/>
       <c r="E83" s="10"/>
     </row>
@@ -4264,7 +4292,7 @@
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="93"/>
       <c r="B92" s="32"/>
-      <c r="C92" s="124"/>
+      <c r="C92" s="119"/>
       <c r="D92" s="4"/>
       <c r="E92" s="10"/>
     </row>
@@ -4273,7 +4301,7 @@
         <v>68</v>
       </c>
       <c r="B93" s="32"/>
-      <c r="C93" s="124"/>
+      <c r="C93" s="119"/>
       <c r="D93" s="4"/>
       <c r="E93" s="10">
         <f>'Condition - Details'!F204</f>
@@ -4285,7 +4313,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="32"/>
-      <c r="C94" s="124"/>
+      <c r="C94" s="119"/>
       <c r="D94" s="4"/>
       <c r="E94" s="10">
         <f>Operation!G79</f>
@@ -4297,7 +4325,7 @@
         <v>69</v>
       </c>
       <c r="B95" s="32"/>
-      <c r="C95" s="124"/>
+      <c r="C95" s="119"/>
       <c r="D95" s="4"/>
       <c r="E95" s="10"/>
     </row>
@@ -4306,7 +4334,7 @@
       <c r="B96" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="124"/>
+      <c r="C96" s="119"/>
       <c r="D96" s="4"/>
       <c r="E96" s="10">
         <f>'Condition - Details'!F208</f>
@@ -4318,7 +4346,7 @@
       <c r="B97" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="124"/>
+      <c r="C97" s="119"/>
       <c r="D97" s="4"/>
       <c r="E97" s="10">
         <f>'Condition - Details'!F209</f>
@@ -4330,7 +4358,7 @@
       <c r="B98" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="124"/>
+      <c r="C98" s="119"/>
       <c r="D98" s="4"/>
       <c r="E98" s="10">
         <f>'Condition - Details'!F210</f>
@@ -4342,7 +4370,7 @@
       <c r="B99" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C99" s="124"/>
+      <c r="C99" s="119"/>
       <c r="D99" s="4"/>
       <c r="E99" s="10">
         <f>'Condition - Details'!F211</f>
@@ -4457,11 +4485,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4470,11 +4496,12 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="160" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="160" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
         <v>491</v>
       </c>
       <c r="B1" s="58"/>
@@ -4485,12 +4512,18 @@
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="60"/>
-      <c r="J1" s="158" t="s">
+      <c r="J1" s="171" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="K1" s="160" t="s">
+        <v>663</v>
+      </c>
+      <c r="L1" s="160" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="154" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="58"/>
@@ -4501,9 +4534,15 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
-      <c r="J2" s="119"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="170"/>
+      <c r="K2" s="160">
+        <v>10</v>
+      </c>
+      <c r="L2" s="160">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4513,9 +4552,9 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="J3" s="119"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J3" s="170"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -4525,9 +4564,9 @@
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
-      <c r="J4" s="119"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="170"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>128</v>
       </c>
@@ -4539,10 +4578,10 @@
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
-      <c r="J5" s="119"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="167" t="s">
+      <c r="J5" s="170"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="154" t="s">
         <v>494</v>
       </c>
       <c r="B6" s="61"/>
@@ -4553,10 +4592,10 @@
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
-      <c r="J6" s="119"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
+      <c r="J6" s="170"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
       <c r="D7" s="64"/>
@@ -4565,9 +4604,9 @@
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
-      <c r="J7" s="119"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="170"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -4583,9 +4622,9 @@
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="119"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="170"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>326</v>
       </c>
@@ -4599,9 +4638,9 @@
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
-      <c r="J9" s="119"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="170"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="58" t="s">
         <v>3</v>
@@ -4617,11 +4656,11 @@
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="120" t="s">
+      <c r="J10" s="172" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="58" t="s">
         <v>4</v>
@@ -4633,9 +4672,9 @@
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="119"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="170"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="58"/>
       <c r="C12" s="58" t="s">
@@ -4651,11 +4690,11 @@
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="120" t="s">
+      <c r="J12" s="172" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="58"/>
       <c r="C13" s="58" t="s">
@@ -4671,11 +4710,11 @@
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="120" t="s">
+      <c r="J13" s="172" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58" t="s">
@@ -4691,11 +4730,11 @@
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="172" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="58"/>
       <c r="C15" s="58" t="s">
@@ -4711,11 +4750,11 @@
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
       <c r="I15" s="60"/>
-      <c r="J15" s="120" t="s">
+      <c r="J15" s="172" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58" t="s">
@@ -4731,7 +4770,7 @@
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="120" t="s">
+      <c r="J16" s="172" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4751,7 +4790,7 @@
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="60"/>
-      <c r="J17" s="120" t="s">
+      <c r="J17" s="172" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4771,7 +4810,7 @@
       <c r="G18" s="60"/>
       <c r="H18" s="60"/>
       <c r="I18" s="60"/>
-      <c r="J18" s="120" t="s">
+      <c r="J18" s="172" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4791,7 +4830,7 @@
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="60"/>
-      <c r="J19" s="120" t="s">
+      <c r="J19" s="172" t="s">
         <v>431</v>
       </c>
     </row>
@@ -4811,7 +4850,7 @@
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="60"/>
-      <c r="J20" s="120" t="s">
+      <c r="J20" s="172" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4829,7 +4868,7 @@
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
-      <c r="J21" s="120"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
@@ -4847,7 +4886,7 @@
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="58"/>
@@ -4865,7 +4904,7 @@
       <c r="G23" s="71"/>
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
-      <c r="J23" s="120" t="s">
+      <c r="J23" s="172" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4885,7 +4924,7 @@
       <c r="G24" s="73"/>
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="J24" s="121"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="61"/>
@@ -4897,7 +4936,7 @@
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
-      <c r="J25" s="121"/>
+      <c r="J25" s="173"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
@@ -4913,7 +4952,7 @@
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
-      <c r="J26" s="120"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
@@ -4927,7 +4966,7 @@
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
-      <c r="J27" s="120"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
@@ -4945,7 +4984,7 @@
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
       <c r="I28" s="60"/>
-      <c r="J28" s="120" t="s">
+      <c r="J28" s="172" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4965,7 +5004,7 @@
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
-      <c r="J29" s="120" t="s">
+      <c r="J29" s="172" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4985,7 +5024,7 @@
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
       <c r="I30" s="60"/>
-      <c r="J30" s="120" t="s">
+      <c r="J30" s="172" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5005,7 +5044,7 @@
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
       <c r="I31" s="60"/>
-      <c r="J31" s="120" t="s">
+      <c r="J31" s="172" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5025,7 +5064,7 @@
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
-      <c r="J32" s="120" t="s">
+      <c r="J32" s="172" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5045,7 +5084,7 @@
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
       <c r="I33" s="60"/>
-      <c r="J33" s="120" t="s">
+      <c r="J33" s="172" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5065,7 +5104,7 @@
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
       <c r="I34" s="60"/>
-      <c r="J34" s="120" t="s">
+      <c r="J34" s="172" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5085,7 +5124,7 @@
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
-      <c r="J35" s="120" t="s">
+      <c r="J35" s="172" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5105,7 +5144,7 @@
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
-      <c r="J36" s="120" t="s">
+      <c r="J36" s="172" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5125,7 +5164,7 @@
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
-      <c r="J37" s="120" t="s">
+      <c r="J37" s="172" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5145,7 +5184,7 @@
       <c r="G38" s="60"/>
       <c r="H38" s="60"/>
       <c r="I38" s="60"/>
-      <c r="J38" s="120" t="s">
+      <c r="J38" s="172" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5165,7 +5204,7 @@
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
       <c r="I39" s="60"/>
-      <c r="J39" s="120" t="s">
+      <c r="J39" s="172" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5185,7 +5224,7 @@
       <c r="G40" s="60"/>
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
-      <c r="J40" s="120" t="s">
+      <c r="J40" s="172" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5205,7 +5244,7 @@
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
-      <c r="J41" s="120" t="s">
+      <c r="J41" s="172" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5225,7 +5264,7 @@
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
-      <c r="J42" s="120" t="s">
+      <c r="J42" s="172" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5245,7 +5284,7 @@
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="60"/>
-      <c r="J43" s="120" t="s">
+      <c r="J43" s="172" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5265,7 +5304,7 @@
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
-      <c r="J44" s="120" t="s">
+      <c r="J44" s="172" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5285,7 +5324,7 @@
       <c r="G45" s="60"/>
       <c r="H45" s="60"/>
       <c r="I45" s="60"/>
-      <c r="J45" s="120" t="s">
+      <c r="J45" s="172" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5305,7 +5344,7 @@
       <c r="G46" s="60"/>
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
-      <c r="J46" s="120" t="s">
+      <c r="J46" s="172" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5325,7 +5364,7 @@
       <c r="G47" s="60"/>
       <c r="H47" s="60"/>
       <c r="I47" s="60"/>
-      <c r="J47" s="120" t="s">
+      <c r="J47" s="172" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5345,7 +5384,7 @@
       <c r="G48" s="71"/>
       <c r="H48" s="71"/>
       <c r="I48" s="71"/>
-      <c r="J48" s="120" t="s">
+      <c r="J48" s="172" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5364,7 +5403,7 @@
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
       <c r="I49" s="60"/>
-      <c r="J49" s="119"/>
+      <c r="J49" s="170"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
@@ -5382,7 +5421,7 @@
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
       <c r="I50" s="60"/>
-      <c r="J50" s="120" t="s">
+      <c r="J50" s="172" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5398,7 +5437,7 @@
       <c r="G51" s="60"/>
       <c r="H51" s="60"/>
       <c r="I51" s="60"/>
-      <c r="J51" s="120"/>
+      <c r="J51" s="172"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
@@ -5416,7 +5455,7 @@
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
       <c r="I52" s="60"/>
-      <c r="J52" s="120" t="s">
+      <c r="J52" s="172" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5436,7 +5475,7 @@
       <c r="G53" s="60"/>
       <c r="H53" s="60"/>
       <c r="I53" s="60"/>
-      <c r="J53" s="120" t="s">
+      <c r="J53" s="172" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5456,7 +5495,7 @@
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
-      <c r="J54" s="120" t="s">
+      <c r="J54" s="172" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5476,7 +5515,7 @@
       <c r="G55" s="60"/>
       <c r="H55" s="60"/>
       <c r="I55" s="60"/>
-      <c r="J55" s="119"/>
+      <c r="J55" s="170"/>
     </row>
     <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A56" s="58"/>
@@ -5494,7 +5533,7 @@
       <c r="G56" s="71"/>
       <c r="H56" s="71"/>
       <c r="I56" s="71"/>
-      <c r="J56" s="120" t="s">
+      <c r="J56" s="172" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5514,7 +5553,7 @@
       <c r="G57" s="60"/>
       <c r="H57" s="60"/>
       <c r="I57" s="60"/>
-      <c r="J57" s="119"/>
+      <c r="J57" s="170"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
@@ -5532,7 +5571,7 @@
       <c r="G58" s="60"/>
       <c r="H58" s="60"/>
       <c r="I58" s="60"/>
-      <c r="J58" s="120" t="s">
+      <c r="J58" s="172" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5552,7 +5591,7 @@
       <c r="G59" s="71"/>
       <c r="H59" s="71"/>
       <c r="I59" s="71"/>
-      <c r="J59" s="120" t="s">
+      <c r="J59" s="172" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5572,7 +5611,7 @@
       <c r="G60" s="73"/>
       <c r="H60" s="73"/>
       <c r="I60" s="73"/>
-      <c r="J60" s="121"/>
+      <c r="J60" s="173"/>
     </row>
     <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A61" s="58"/>
@@ -5584,7 +5623,7 @@
       <c r="G61" s="71"/>
       <c r="H61" s="71"/>
       <c r="I61" s="71"/>
-      <c r="J61" s="120"/>
+      <c r="J61" s="172"/>
     </row>
     <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A62" s="61" t="s">
@@ -5600,7 +5639,7 @@
       <c r="G62" s="71"/>
       <c r="H62" s="71"/>
       <c r="I62" s="71"/>
-      <c r="J62" s="120"/>
+      <c r="J62" s="172"/>
     </row>
     <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A63" s="65"/>
@@ -5618,7 +5657,7 @@
       <c r="G63" s="60"/>
       <c r="H63" s="71"/>
       <c r="I63" s="60"/>
-      <c r="J63" s="120" t="s">
+      <c r="J63" s="172" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5638,7 +5677,7 @@
       <c r="G64" s="71"/>
       <c r="H64" s="71"/>
       <c r="I64" s="60"/>
-      <c r="J64" s="120" t="s">
+      <c r="J64" s="172" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5658,7 +5697,7 @@
       <c r="G65" s="71"/>
       <c r="H65" s="71"/>
       <c r="I65" s="60"/>
-      <c r="J65" s="120" t="s">
+      <c r="J65" s="172" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5678,7 +5717,7 @@
       <c r="G66" s="71"/>
       <c r="H66" s="71"/>
       <c r="I66" s="60"/>
-      <c r="J66" s="120" t="s">
+      <c r="J66" s="172" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5698,7 +5737,7 @@
       <c r="G67" s="73"/>
       <c r="H67" s="73"/>
       <c r="I67" s="76"/>
-      <c r="J67" s="121"/>
+      <c r="J67" s="173"/>
     </row>
     <row r="68" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A68" s="61"/>
@@ -5710,7 +5749,7 @@
       <c r="G68" s="73"/>
       <c r="H68" s="73"/>
       <c r="I68" s="76"/>
-      <c r="J68" s="121"/>
+      <c r="J68" s="173"/>
     </row>
     <row r="69" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="61" t="s">
@@ -5726,7 +5765,7 @@
       <c r="G69" s="71"/>
       <c r="H69" s="71"/>
       <c r="I69" s="60"/>
-      <c r="J69" s="120"/>
+      <c r="J69" s="172"/>
     </row>
     <row r="70" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A70" s="58"/>
@@ -5744,7 +5783,7 @@
       <c r="G70" s="71"/>
       <c r="H70" s="71"/>
       <c r="I70" s="60"/>
-      <c r="J70" s="120" t="s">
+      <c r="J70" s="172" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5764,7 +5803,7 @@
       <c r="G71" s="71"/>
       <c r="H71" s="71"/>
       <c r="I71" s="60"/>
-      <c r="J71" s="120" t="s">
+      <c r="J71" s="172" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5784,7 +5823,7 @@
       <c r="G72" s="71"/>
       <c r="H72" s="71"/>
       <c r="I72" s="60"/>
-      <c r="J72" s="120" t="s">
+      <c r="J72" s="172" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5804,7 +5843,7 @@
       <c r="G73" s="71"/>
       <c r="H73" s="71"/>
       <c r="I73" s="71"/>
-      <c r="J73" s="120" t="s">
+      <c r="J73" s="172" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5824,7 +5863,7 @@
       <c r="G74" s="73"/>
       <c r="H74" s="73"/>
       <c r="I74" s="76"/>
-      <c r="J74" s="121"/>
+      <c r="J74" s="173"/>
     </row>
     <row r="75" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A75" s="58"/>
@@ -5836,7 +5875,7 @@
       <c r="G75" s="60"/>
       <c r="H75" s="71"/>
       <c r="I75" s="60"/>
-      <c r="J75" s="120"/>
+      <c r="J75" s="172"/>
     </row>
     <row r="76" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A76" s="61" t="s">
@@ -5850,7 +5889,7 @@
       <c r="G76" s="60"/>
       <c r="H76" s="71"/>
       <c r="I76" s="60"/>
-      <c r="J76" s="120"/>
+      <c r="J76" s="172"/>
     </row>
     <row r="77" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A77" s="58"/>
@@ -5868,7 +5907,7 @@
       <c r="G77" s="60"/>
       <c r="H77" s="71"/>
       <c r="I77" s="60"/>
-      <c r="J77" s="120" t="s">
+      <c r="J77" s="172" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5888,7 +5927,7 @@
       <c r="G78" s="60"/>
       <c r="H78" s="71"/>
       <c r="I78" s="60"/>
-      <c r="J78" s="120"/>
+      <c r="J78" s="172"/>
     </row>
     <row r="79" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A79" s="58"/>
@@ -5900,7 +5939,7 @@
       <c r="G79" s="60"/>
       <c r="H79" s="71"/>
       <c r="I79" s="60"/>
-      <c r="J79" s="120"/>
+      <c r="J79" s="172"/>
     </row>
     <row r="80" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A80" s="61" t="s">
@@ -5916,7 +5955,7 @@
       <c r="G80" s="60"/>
       <c r="H80" s="71"/>
       <c r="I80" s="60"/>
-      <c r="J80" s="120"/>
+      <c r="J80" s="172"/>
     </row>
     <row r="81" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="58"/>
@@ -5934,7 +5973,7 @@
       <c r="G81" s="60"/>
       <c r="H81" s="71"/>
       <c r="I81" s="60"/>
-      <c r="J81" s="120" t="s">
+      <c r="J81" s="172" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5954,7 +5993,7 @@
       <c r="G82" s="60"/>
       <c r="H82" s="71"/>
       <c r="I82" s="60"/>
-      <c r="J82" s="120" t="s">
+      <c r="J82" s="172" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5974,7 +6013,7 @@
       <c r="G83" s="60"/>
       <c r="H83" s="71"/>
       <c r="I83" s="60"/>
-      <c r="J83" s="120" t="s">
+      <c r="J83" s="172" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5994,7 +6033,7 @@
       <c r="G84" s="60"/>
       <c r="H84" s="71"/>
       <c r="I84" s="60"/>
-      <c r="J84" s="120" t="s">
+      <c r="J84" s="172" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6014,7 +6053,7 @@
       <c r="G85" s="60"/>
       <c r="H85" s="71"/>
       <c r="I85" s="60"/>
-      <c r="J85" s="120" t="s">
+      <c r="J85" s="172" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6034,7 +6073,7 @@
       <c r="G86" s="60"/>
       <c r="H86" s="71"/>
       <c r="I86" s="60"/>
-      <c r="J86" s="120" t="s">
+      <c r="J86" s="172" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6054,7 +6093,7 @@
       <c r="G87" s="60"/>
       <c r="H87" s="71"/>
       <c r="I87" s="60"/>
-      <c r="J87" s="120" t="s">
+      <c r="J87" s="172" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6074,7 +6113,7 @@
       <c r="G88" s="60"/>
       <c r="H88" s="71"/>
       <c r="I88" s="60"/>
-      <c r="J88" s="120" t="s">
+      <c r="J88" s="172" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6094,7 +6133,7 @@
       <c r="G89" s="71"/>
       <c r="H89" s="71"/>
       <c r="I89" s="71"/>
-      <c r="J89" s="120" t="s">
+      <c r="J89" s="172" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6114,7 +6153,7 @@
       <c r="G90" s="73"/>
       <c r="H90" s="73"/>
       <c r="I90" s="73"/>
-      <c r="J90" s="121"/>
+      <c r="J90" s="173"/>
     </row>
     <row r="91" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A91" s="61"/>
@@ -6126,7 +6165,7 @@
       <c r="G91" s="73"/>
       <c r="H91" s="73"/>
       <c r="I91" s="73"/>
-      <c r="J91" s="121"/>
+      <c r="J91" s="173"/>
     </row>
     <row r="92" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A92" s="61" t="s">
@@ -6140,7 +6179,7 @@
       <c r="G92" s="60"/>
       <c r="H92" s="71"/>
       <c r="I92" s="60"/>
-      <c r="J92" s="120"/>
+      <c r="J92" s="172"/>
     </row>
     <row r="93" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A93" s="58"/>
@@ -6158,7 +6197,7 @@
       <c r="G93" s="60"/>
       <c r="H93" s="71"/>
       <c r="I93" s="60"/>
-      <c r="J93" s="120" t="s">
+      <c r="J93" s="172" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6178,7 +6217,7 @@
       <c r="G94" s="60"/>
       <c r="H94" s="71"/>
       <c r="I94" s="60"/>
-      <c r="J94" s="120" t="s">
+      <c r="J94" s="172" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6198,7 +6237,7 @@
       <c r="G95" s="60"/>
       <c r="H95" s="71"/>
       <c r="I95" s="60"/>
-      <c r="J95" s="120"/>
+      <c r="J95" s="172"/>
     </row>
     <row r="96" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A96" s="58"/>
@@ -6210,7 +6249,7 @@
       <c r="G96" s="60"/>
       <c r="H96" s="71"/>
       <c r="I96" s="60"/>
-      <c r="J96" s="120"/>
+      <c r="J96" s="172"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
@@ -6226,7 +6265,7 @@
       <c r="G97" s="60"/>
       <c r="H97" s="60"/>
       <c r="I97" s="60"/>
-      <c r="J97" s="119"/>
+      <c r="J97" s="170"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="58"/>
@@ -6244,7 +6283,7 @@
       <c r="G98" s="60"/>
       <c r="H98" s="60"/>
       <c r="I98" s="60"/>
-      <c r="J98" s="120" t="s">
+      <c r="J98" s="172" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6264,7 +6303,7 @@
       <c r="G99" s="60"/>
       <c r="H99" s="60"/>
       <c r="I99" s="60"/>
-      <c r="J99" s="120" t="s">
+      <c r="J99" s="172" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6284,7 +6323,7 @@
       <c r="G100" s="60"/>
       <c r="H100" s="60"/>
       <c r="I100" s="60"/>
-      <c r="J100" s="120" t="s">
+      <c r="J100" s="172" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6304,7 +6343,7 @@
       <c r="G101" s="60"/>
       <c r="H101" s="60"/>
       <c r="I101" s="60"/>
-      <c r="J101" s="120" t="s">
+      <c r="J101" s="172" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6324,7 +6363,7 @@
       <c r="G102" s="60"/>
       <c r="H102" s="60"/>
       <c r="I102" s="60"/>
-      <c r="J102" s="120" t="s">
+      <c r="J102" s="172" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6344,7 +6383,7 @@
       <c r="G103" s="60"/>
       <c r="H103" s="60"/>
       <c r="I103" s="60"/>
-      <c r="J103" s="120" t="s">
+      <c r="J103" s="172" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6362,7 +6401,7 @@
       <c r="G104" s="71"/>
       <c r="H104" s="71"/>
       <c r="I104" s="71"/>
-      <c r="J104" s="120"/>
+      <c r="J104" s="172"/>
     </row>
     <row r="105" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A105" s="61"/>
@@ -6380,7 +6419,7 @@
       <c r="G105" s="73"/>
       <c r="H105" s="63"/>
       <c r="I105" s="76"/>
-      <c r="J105" s="121"/>
+      <c r="J105" s="173"/>
     </row>
     <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A106" s="61"/>
@@ -6392,7 +6431,7 @@
       <c r="G106" s="63"/>
       <c r="H106" s="63"/>
       <c r="I106" s="63"/>
-      <c r="J106" s="121"/>
+      <c r="J106" s="173"/>
     </row>
     <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A107" s="61" t="s">
@@ -6406,7 +6445,7 @@
       <c r="G107" s="60"/>
       <c r="H107" s="71"/>
       <c r="I107" s="60"/>
-      <c r="J107" s="120"/>
+      <c r="J107" s="172"/>
     </row>
     <row r="108" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A108" s="58"/>
@@ -6424,7 +6463,7 @@
       <c r="G108" s="60"/>
       <c r="H108" s="71"/>
       <c r="I108" s="60"/>
-      <c r="J108" s="122" t="s">
+      <c r="J108" s="174" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6444,7 +6483,7 @@
       <c r="G109" s="60"/>
       <c r="H109" s="71"/>
       <c r="I109" s="60"/>
-      <c r="J109" s="122" t="s">
+      <c r="J109" s="174" t="s">
         <v>479</v>
       </c>
     </row>
@@ -6464,7 +6503,7 @@
       <c r="G110" s="60"/>
       <c r="H110" s="71"/>
       <c r="I110" s="60"/>
-      <c r="J110" s="122" t="s">
+      <c r="J110" s="174" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6484,7 +6523,7 @@
       <c r="G111" s="60"/>
       <c r="H111" s="71"/>
       <c r="I111" s="60"/>
-      <c r="J111" s="122" t="s">
+      <c r="J111" s="174" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6504,7 +6543,7 @@
       <c r="G112" s="60"/>
       <c r="H112" s="71"/>
       <c r="I112" s="60"/>
-      <c r="J112" s="122" t="s">
+      <c r="J112" s="174" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6524,7 +6563,7 @@
       <c r="G113" s="60"/>
       <c r="H113" s="71"/>
       <c r="I113" s="60"/>
-      <c r="J113" s="122" t="s">
+      <c r="J113" s="174" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6544,7 +6583,7 @@
       <c r="G114" s="60"/>
       <c r="H114" s="71"/>
       <c r="I114" s="60"/>
-      <c r="J114" s="120"/>
+      <c r="J114" s="172"/>
     </row>
     <row r="115" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A115" s="61"/>
@@ -6556,7 +6595,7 @@
       <c r="G115" s="63"/>
       <c r="H115" s="63"/>
       <c r="I115" s="63"/>
-      <c r="J115" s="121"/>
+      <c r="J115" s="173"/>
     </row>
     <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A116" s="61" t="s">
@@ -6570,7 +6609,7 @@
       <c r="G116" s="60"/>
       <c r="H116" s="71"/>
       <c r="I116" s="60"/>
-      <c r="J116" s="120"/>
+      <c r="J116" s="172"/>
     </row>
     <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A117" s="58"/>
@@ -6588,7 +6627,7 @@
       <c r="G117" s="60"/>
       <c r="H117" s="71"/>
       <c r="I117" s="60"/>
-      <c r="J117" s="122" t="s">
+      <c r="J117" s="174" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6608,7 +6647,7 @@
       <c r="G118" s="60"/>
       <c r="H118" s="71"/>
       <c r="I118" s="60"/>
-      <c r="J118" s="122" t="s">
+      <c r="J118" s="174" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6628,7 +6667,7 @@
       <c r="G119" s="60"/>
       <c r="H119" s="71"/>
       <c r="I119" s="60"/>
-      <c r="J119" s="122" t="s">
+      <c r="J119" s="174" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6648,7 +6687,7 @@
       <c r="G120" s="60"/>
       <c r="H120" s="71"/>
       <c r="I120" s="60"/>
-      <c r="J120" s="122" t="s">
+      <c r="J120" s="174" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6668,7 +6707,7 @@
       <c r="G121" s="60"/>
       <c r="H121" s="71"/>
       <c r="I121" s="60"/>
-      <c r="J121" s="122" t="s">
+      <c r="J121" s="174" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6688,7 +6727,7 @@
       <c r="G122" s="60"/>
       <c r="H122" s="71"/>
       <c r="I122" s="60"/>
-      <c r="J122" s="120"/>
+      <c r="J122" s="172"/>
     </row>
     <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A123" s="58"/>
@@ -6700,7 +6739,7 @@
       <c r="G123" s="60"/>
       <c r="H123" s="71"/>
       <c r="I123" s="60"/>
-      <c r="J123" s="120"/>
+      <c r="J123" s="172"/>
     </row>
     <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A124" s="61" t="s">
@@ -6714,11 +6753,11 @@
       <c r="G124" s="60"/>
       <c r="H124" s="71"/>
       <c r="I124" s="60"/>
-      <c r="J124" s="120"/>
+      <c r="J124" s="172"/>
     </row>
     <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A125" s="58"/>
-      <c r="B125" s="124" t="s">
+      <c r="B125" s="119" t="s">
         <v>371</v>
       </c>
       <c r="C125" s="58"/>
@@ -6732,13 +6771,13 @@
       <c r="G125" s="60"/>
       <c r="H125" s="71"/>
       <c r="I125" s="60"/>
-      <c r="J125" s="122" t="s">
+      <c r="J125" s="174" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A126" s="58"/>
-      <c r="B126" s="124" t="s">
+      <c r="B126" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C126" s="58"/>
@@ -6752,13 +6791,13 @@
       <c r="G126" s="60"/>
       <c r="H126" s="71"/>
       <c r="I126" s="60"/>
-      <c r="J126" s="122" t="s">
+      <c r="J126" s="174" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A127" s="58"/>
-      <c r="B127" s="124" t="s">
+      <c r="B127" s="119" t="s">
         <v>372</v>
       </c>
       <c r="C127" s="58"/>
@@ -6772,7 +6811,7 @@
       <c r="G127" s="60"/>
       <c r="H127" s="71"/>
       <c r="I127" s="60"/>
-      <c r="J127" s="122" t="s">
+      <c r="J127" s="174" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6792,7 +6831,7 @@
       <c r="G128" s="60"/>
       <c r="H128" s="71"/>
       <c r="I128" s="60"/>
-      <c r="J128" s="120"/>
+      <c r="J128" s="172"/>
     </row>
     <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A129" s="58"/>
@@ -6804,7 +6843,7 @@
       <c r="G129" s="60"/>
       <c r="H129" s="71"/>
       <c r="I129" s="60"/>
-      <c r="J129" s="120"/>
+      <c r="J129" s="172"/>
     </row>
     <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
@@ -6820,7 +6859,7 @@
       <c r="G130" s="60"/>
       <c r="H130" s="60"/>
       <c r="I130" s="60"/>
-      <c r="J130" s="119"/>
+      <c r="J130" s="170"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="58"/>
@@ -6838,7 +6877,7 @@
       <c r="G131" s="60"/>
       <c r="H131" s="60"/>
       <c r="I131" s="60"/>
-      <c r="J131" s="120" t="s">
+      <c r="J131" s="172" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6858,7 +6897,7 @@
       <c r="G132" s="60"/>
       <c r="H132" s="60"/>
       <c r="I132" s="60"/>
-      <c r="J132" s="120" t="s">
+      <c r="J132" s="172" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6878,7 +6917,7 @@
       <c r="G133" s="60"/>
       <c r="H133" s="60"/>
       <c r="I133" s="60"/>
-      <c r="J133" s="120" t="s">
+      <c r="J133" s="172" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6898,7 +6937,7 @@
       <c r="G134" s="60"/>
       <c r="H134" s="60"/>
       <c r="I134" s="60"/>
-      <c r="J134" s="120" t="s">
+      <c r="J134" s="172" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6918,7 +6957,7 @@
       <c r="G135" s="60"/>
       <c r="H135" s="71"/>
       <c r="I135" s="60"/>
-      <c r="J135" s="120" t="s">
+      <c r="J135" s="172" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6938,7 +6977,7 @@
       <c r="G136" s="71"/>
       <c r="H136" s="71"/>
       <c r="I136" s="71"/>
-      <c r="J136" s="120" t="s">
+      <c r="J136" s="172" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6958,7 +6997,7 @@
       <c r="G137" s="63"/>
       <c r="H137" s="63"/>
       <c r="I137" s="63"/>
-      <c r="J137" s="120"/>
+      <c r="J137" s="172"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="61"/>
@@ -6970,7 +7009,7 @@
       <c r="G138" s="63"/>
       <c r="H138" s="63"/>
       <c r="I138" s="63"/>
-      <c r="J138" s="120"/>
+      <c r="J138" s="172"/>
     </row>
     <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A139" s="61" t="s">
@@ -6986,7 +7025,7 @@
       <c r="G139" s="60"/>
       <c r="H139" s="71"/>
       <c r="I139" s="60"/>
-      <c r="J139" s="120"/>
+      <c r="J139" s="172"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="58" t="s">
@@ -7006,7 +7045,7 @@
       <c r="G140" s="60"/>
       <c r="H140" s="60"/>
       <c r="I140" s="60"/>
-      <c r="J140" s="120" t="s">
+      <c r="J140" s="172" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7028,7 +7067,7 @@
       <c r="G141" s="60"/>
       <c r="H141" s="60"/>
       <c r="I141" s="60"/>
-      <c r="J141" s="120" t="s">
+      <c r="J141" s="172" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7050,7 +7089,7 @@
       <c r="G142" s="71"/>
       <c r="H142" s="71"/>
       <c r="I142" s="71"/>
-      <c r="J142" s="120" t="s">
+      <c r="J142" s="172" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7070,7 +7109,7 @@
       <c r="G143" s="73"/>
       <c r="H143" s="73"/>
       <c r="I143" s="73"/>
-      <c r="J143" s="120"/>
+      <c r="J143" s="172"/>
     </row>
     <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A144" s="61"/>
@@ -7082,7 +7121,7 @@
       <c r="G144" s="73"/>
       <c r="H144" s="73"/>
       <c r="I144" s="73"/>
-      <c r="J144" s="120"/>
+      <c r="J144" s="172"/>
     </row>
     <row r="145" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A145" s="61" t="s">
@@ -7098,7 +7137,7 @@
       <c r="G145" s="71"/>
       <c r="H145" s="71"/>
       <c r="I145" s="71"/>
-      <c r="J145" s="120"/>
+      <c r="J145" s="172"/>
     </row>
     <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A146" s="67"/>
@@ -7116,7 +7155,7 @@
       <c r="G146" s="60"/>
       <c r="H146" s="71"/>
       <c r="I146" s="60"/>
-      <c r="J146" s="120" t="s">
+      <c r="J146" s="172" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7136,7 +7175,7 @@
       <c r="G147" s="60"/>
       <c r="H147" s="60"/>
       <c r="I147" s="60"/>
-      <c r="J147" s="120" t="s">
+      <c r="J147" s="172" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7156,7 +7195,7 @@
       <c r="G148" s="60"/>
       <c r="H148" s="60"/>
       <c r="I148" s="60"/>
-      <c r="J148" s="120" t="s">
+      <c r="J148" s="172" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7176,7 +7215,7 @@
       <c r="G149" s="60"/>
       <c r="H149" s="60"/>
       <c r="I149" s="60"/>
-      <c r="J149" s="120" t="s">
+      <c r="J149" s="172" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7196,7 +7235,7 @@
       <c r="G150" s="60"/>
       <c r="H150" s="60"/>
       <c r="I150" s="60"/>
-      <c r="J150" s="120" t="s">
+      <c r="J150" s="172" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7216,7 +7255,7 @@
       <c r="G151" s="60"/>
       <c r="H151" s="60"/>
       <c r="I151" s="60"/>
-      <c r="J151" s="120" t="s">
+      <c r="J151" s="172" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7236,7 +7275,7 @@
       <c r="G152" s="60"/>
       <c r="H152" s="60"/>
       <c r="I152" s="60"/>
-      <c r="J152" s="120" t="s">
+      <c r="J152" s="172" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7256,7 +7295,7 @@
       <c r="G153" s="71"/>
       <c r="H153" s="71"/>
       <c r="I153" s="71"/>
-      <c r="J153" s="120" t="s">
+      <c r="J153" s="172" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7276,7 +7315,7 @@
       <c r="G154" s="63"/>
       <c r="H154" s="63"/>
       <c r="I154" s="63"/>
-      <c r="J154" s="120"/>
+      <c r="J154" s="172"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="61"/>
@@ -7288,7 +7327,7 @@
       <c r="G155" s="63"/>
       <c r="H155" s="63"/>
       <c r="I155" s="63"/>
-      <c r="J155" s="120"/>
+      <c r="J155" s="172"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="61" t="s">
@@ -7304,7 +7343,7 @@
       <c r="G156" s="60"/>
       <c r="H156" s="60"/>
       <c r="I156" s="60"/>
-      <c r="J156" s="120"/>
+      <c r="J156" s="172"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="58"/>
@@ -7322,7 +7361,7 @@
       <c r="G157" s="60"/>
       <c r="H157" s="60"/>
       <c r="I157" s="57"/>
-      <c r="J157" s="123" t="s">
+      <c r="J157" s="170" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7342,7 +7381,7 @@
       <c r="G158" s="60"/>
       <c r="H158" s="60"/>
       <c r="I158" s="60"/>
-      <c r="J158" s="120" t="s">
+      <c r="J158" s="172" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7362,7 +7401,7 @@
       <c r="G159" s="60"/>
       <c r="H159" s="60"/>
       <c r="I159" s="60"/>
-      <c r="J159" s="120" t="s">
+      <c r="J159" s="172" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7382,7 +7421,7 @@
       <c r="G160" s="60"/>
       <c r="H160" s="60"/>
       <c r="I160" s="60"/>
-      <c r="J160" s="120" t="s">
+      <c r="J160" s="172" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7402,7 +7441,7 @@
       <c r="G161" s="60"/>
       <c r="H161" s="60"/>
       <c r="I161" s="60"/>
-      <c r="J161" s="120" t="s">
+      <c r="J161" s="172" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7422,7 +7461,7 @@
       <c r="G162" s="60"/>
       <c r="H162" s="60"/>
       <c r="I162" s="60"/>
-      <c r="J162" s="120" t="s">
+      <c r="J162" s="172" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7442,7 +7481,7 @@
       <c r="G163" s="60"/>
       <c r="H163" s="60"/>
       <c r="I163" s="60"/>
-      <c r="J163" s="120" t="s">
+      <c r="J163" s="172" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7462,7 +7501,7 @@
       <c r="G164" s="60"/>
       <c r="H164" s="60"/>
       <c r="I164" s="60"/>
-      <c r="J164" s="120" t="s">
+      <c r="J164" s="172" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7482,7 +7521,7 @@
       <c r="G165" s="60"/>
       <c r="H165" s="60"/>
       <c r="I165" s="60"/>
-      <c r="J165" s="120" t="s">
+      <c r="J165" s="172" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7502,7 +7541,7 @@
       <c r="G166" s="60"/>
       <c r="H166" s="60"/>
       <c r="I166" s="60"/>
-      <c r="J166" s="120" t="s">
+      <c r="J166" s="172" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7522,7 +7561,7 @@
       <c r="G167" s="60"/>
       <c r="H167" s="60"/>
       <c r="I167" s="60"/>
-      <c r="J167" s="120" t="s">
+      <c r="J167" s="172" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7542,7 +7581,7 @@
       <c r="G168" s="60"/>
       <c r="H168" s="60"/>
       <c r="I168" s="60"/>
-      <c r="J168" s="120" t="s">
+      <c r="J168" s="172" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7562,7 +7601,7 @@
       <c r="G169" s="60"/>
       <c r="H169" s="60"/>
       <c r="I169" s="60"/>
-      <c r="J169" s="120" t="s">
+      <c r="J169" s="172" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7582,7 +7621,7 @@
       <c r="G170" s="71"/>
       <c r="H170" s="60"/>
       <c r="I170" s="60"/>
-      <c r="J170" s="120" t="s">
+      <c r="J170" s="172" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7602,7 +7641,7 @@
       <c r="G171" s="71"/>
       <c r="H171" s="71"/>
       <c r="I171" s="71"/>
-      <c r="J171" s="120" t="s">
+      <c r="J171" s="172" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7622,7 +7661,7 @@
       <c r="G172" s="63"/>
       <c r="H172" s="63"/>
       <c r="I172" s="63"/>
-      <c r="J172" s="119"/>
+      <c r="J172" s="170"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="61"/>
@@ -7634,7 +7673,7 @@
       <c r="G173" s="63"/>
       <c r="H173" s="63"/>
       <c r="I173" s="63"/>
-      <c r="J173" s="119"/>
+      <c r="J173" s="170"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="61" t="s">
@@ -7648,7 +7687,7 @@
       <c r="G174" s="63"/>
       <c r="H174" s="63"/>
       <c r="I174" s="63"/>
-      <c r="J174" s="119"/>
+      <c r="J174" s="170"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="58"/>
@@ -7666,7 +7705,7 @@
       <c r="G175" s="63"/>
       <c r="H175" s="63"/>
       <c r="I175" s="63"/>
-      <c r="J175" s="119" t="s">
+      <c r="J175" s="170" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7686,7 +7725,7 @@
       <c r="G176" s="63"/>
       <c r="H176" s="63"/>
       <c r="I176" s="63"/>
-      <c r="J176" s="119" t="s">
+      <c r="J176" s="170" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7706,7 +7745,7 @@
       <c r="G177" s="63"/>
       <c r="H177" s="63"/>
       <c r="I177" s="63"/>
-      <c r="J177" s="119" t="s">
+      <c r="J177" s="170" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7726,7 +7765,7 @@
       <c r="G178" s="63"/>
       <c r="H178" s="63"/>
       <c r="I178" s="63"/>
-      <c r="J178" s="119" t="s">
+      <c r="J178" s="170" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7746,7 +7785,7 @@
       <c r="G179" s="63"/>
       <c r="H179" s="63"/>
       <c r="I179" s="63"/>
-      <c r="J179" s="119" t="s">
+      <c r="J179" s="170" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7766,7 +7805,7 @@
       <c r="G180" s="63"/>
       <c r="H180" s="63"/>
       <c r="I180" s="63"/>
-      <c r="J180" s="119" t="s">
+      <c r="J180" s="170" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7786,7 +7825,7 @@
       <c r="G181" s="63"/>
       <c r="H181" s="63"/>
       <c r="I181" s="63"/>
-      <c r="J181" s="119" t="s">
+      <c r="J181" s="170" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7804,7 +7843,7 @@
       <c r="G182" s="63"/>
       <c r="H182" s="63"/>
       <c r="I182" s="63"/>
-      <c r="J182" s="119"/>
+      <c r="J182" s="170"/>
     </row>
     <row r="183" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A183" s="61"/>
@@ -7822,7 +7861,7 @@
       <c r="G183" s="63"/>
       <c r="H183" s="63"/>
       <c r="I183" s="63"/>
-      <c r="J183" s="119"/>
+      <c r="J183" s="170"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="61"/>
@@ -7834,7 +7873,7 @@
       <c r="G184" s="63"/>
       <c r="H184" s="63"/>
       <c r="I184" s="63"/>
-      <c r="J184" s="119"/>
+      <c r="J184" s="170"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="61" t="s">
@@ -7848,14 +7887,14 @@
       <c r="G185" s="63"/>
       <c r="H185" s="63"/>
       <c r="I185" s="63"/>
-      <c r="J185" s="119"/>
+      <c r="J185" s="170"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="58"/>
-      <c r="B186" s="171" t="s">
+      <c r="B186" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="C186" s="171"/>
+      <c r="C186" s="158"/>
       <c r="D186" s="59"/>
       <c r="E186" s="70" t="s">
         <v>398</v>
@@ -7866,7 +7905,7 @@
       <c r="G186" s="63"/>
       <c r="H186" s="63"/>
       <c r="I186" s="63"/>
-      <c r="J186" s="119" t="s">
+      <c r="J186" s="170" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7882,7 +7921,7 @@
       <c r="G187" s="63"/>
       <c r="H187" s="63"/>
       <c r="I187" s="63"/>
-      <c r="J187" s="119"/>
+      <c r="J187" s="170"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="58"/>
@@ -7900,7 +7939,7 @@
       <c r="G188" s="63"/>
       <c r="H188" s="63"/>
       <c r="I188" s="63"/>
-      <c r="J188" s="119" t="s">
+      <c r="J188" s="170" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7920,7 +7959,7 @@
       <c r="G189" s="63"/>
       <c r="H189" s="63"/>
       <c r="I189" s="63"/>
-      <c r="J189" s="119" t="s">
+      <c r="J189" s="170" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7938,7 +7977,7 @@
       <c r="G190" s="63"/>
       <c r="H190" s="63"/>
       <c r="I190" s="63"/>
-      <c r="J190" s="119"/>
+      <c r="J190" s="170"/>
     </row>
     <row r="191" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A191" s="61"/>
@@ -7956,7 +7995,7 @@
       <c r="G191" s="63"/>
       <c r="H191" s="63"/>
       <c r="I191" s="63"/>
-      <c r="J191" s="119"/>
+      <c r="J191" s="170"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="61"/>
@@ -7968,7 +8007,7 @@
       <c r="G192" s="63"/>
       <c r="H192" s="63"/>
       <c r="I192" s="63"/>
-      <c r="J192" s="119"/>
+      <c r="J192" s="170"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="61" t="str">
@@ -7983,14 +8022,14 @@
       <c r="G193" s="63"/>
       <c r="H193" s="63"/>
       <c r="I193" s="63"/>
-      <c r="J193" s="119"/>
+      <c r="J193" s="170"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="58"/>
-      <c r="B194" s="171" t="s">
+      <c r="B194" s="158" t="s">
         <v>400</v>
       </c>
-      <c r="C194" s="171"/>
+      <c r="C194" s="158"/>
       <c r="D194" s="59"/>
       <c r="E194" s="70" t="s">
         <v>401</v>
@@ -8001,7 +8040,7 @@
       <c r="G194" s="63"/>
       <c r="H194" s="63"/>
       <c r="I194" s="63"/>
-      <c r="J194" s="119" t="s">
+      <c r="J194" s="170" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8021,7 +8060,7 @@
       <c r="G195" s="63"/>
       <c r="H195" s="63"/>
       <c r="I195" s="63"/>
-      <c r="J195" s="119" t="s">
+      <c r="J195" s="170" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8041,7 +8080,7 @@
       <c r="G196" s="63"/>
       <c r="H196" s="63"/>
       <c r="I196" s="63"/>
-      <c r="J196" s="119"/>
+      <c r="J196" s="170"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="61"/>
@@ -8053,7 +8092,7 @@
       <c r="G197" s="63"/>
       <c r="H197" s="63"/>
       <c r="I197" s="63"/>
-      <c r="J197" s="119"/>
+      <c r="J197" s="170"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="61" t="str">
@@ -8068,14 +8107,14 @@
       <c r="G198" s="63"/>
       <c r="H198" s="63"/>
       <c r="I198" s="63"/>
-      <c r="J198" s="119"/>
+      <c r="J198" s="170"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="58"/>
-      <c r="B199" s="171" t="s">
+      <c r="B199" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="C199" s="171"/>
+      <c r="C199" s="158"/>
       <c r="D199" s="59"/>
       <c r="E199" s="70" t="s">
         <v>403</v>
@@ -8086,7 +8125,7 @@
       <c r="G199" s="63"/>
       <c r="H199" s="63"/>
       <c r="I199" s="63"/>
-      <c r="J199" s="119" t="s">
+      <c r="J199" s="170" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8106,7 +8145,7 @@
       <c r="G200" s="63"/>
       <c r="H200" s="63"/>
       <c r="I200" s="63"/>
-      <c r="J200" s="119" t="s">
+      <c r="J200" s="170" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8126,7 +8165,7 @@
       <c r="G201" s="63"/>
       <c r="H201" s="63"/>
       <c r="I201" s="63"/>
-      <c r="J201" s="119"/>
+      <c r="J201" s="170"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="61"/>
@@ -8138,7 +8177,7 @@
       <c r="G202" s="63"/>
       <c r="H202" s="63"/>
       <c r="I202" s="63"/>
-      <c r="J202" s="119"/>
+      <c r="J202" s="170"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="61" t="s">
@@ -8152,14 +8191,14 @@
       <c r="G203" s="63"/>
       <c r="H203" s="63"/>
       <c r="I203" s="63"/>
-      <c r="J203" s="119"/>
+      <c r="J203" s="170"/>
     </row>
     <row r="204" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A204" s="58"/>
-      <c r="B204" s="171" t="s">
+      <c r="B204" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="C204" s="171"/>
+      <c r="C204" s="158"/>
       <c r="D204" s="59"/>
       <c r="E204" s="70" t="s">
         <v>412</v>
@@ -8170,7 +8209,7 @@
       <c r="G204" s="63"/>
       <c r="H204" s="63"/>
       <c r="I204" s="63"/>
-      <c r="J204" s="119" t="s">
+      <c r="J204" s="170" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8190,7 +8229,7 @@
       <c r="G205" s="63"/>
       <c r="H205" s="63"/>
       <c r="I205" s="63"/>
-      <c r="J205" s="119"/>
+      <c r="J205" s="170"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="61"/>
@@ -8202,7 +8241,7 @@
       <c r="G206" s="63"/>
       <c r="H206" s="63"/>
       <c r="I206" s="63"/>
-      <c r="J206" s="119"/>
+      <c r="J206" s="170"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="61" t="s">
@@ -8216,14 +8255,14 @@
       <c r="G207" s="63"/>
       <c r="H207" s="63"/>
       <c r="I207" s="63"/>
-      <c r="J207" s="119"/>
+      <c r="J207" s="170"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="58"/>
-      <c r="B208" s="171" t="s">
+      <c r="B208" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="C208" s="171"/>
+      <c r="C208" s="158"/>
       <c r="D208" s="59"/>
       <c r="E208" s="70" t="s">
         <v>407</v>
@@ -8234,7 +8273,7 @@
       <c r="G208" s="63"/>
       <c r="H208" s="63"/>
       <c r="I208" s="63"/>
-      <c r="J208" s="119" t="s">
+      <c r="J208" s="170" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8243,7 +8282,7 @@
       <c r="B209" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C209" s="124"/>
+      <c r="C209" s="119"/>
       <c r="D209" s="59"/>
       <c r="E209" s="70" t="s">
         <v>410</v>
@@ -8254,7 +8293,7 @@
       <c r="G209" s="63"/>
       <c r="H209" s="63"/>
       <c r="I209" s="63"/>
-      <c r="J209" s="119" t="s">
+      <c r="J209" s="170" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8263,7 +8302,7 @@
       <c r="B210" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C210" s="124"/>
+      <c r="C210" s="119"/>
       <c r="D210" s="59"/>
       <c r="E210" s="70" t="s">
         <v>408</v>
@@ -8274,7 +8313,7 @@
       <c r="G210" s="63"/>
       <c r="H210" s="63"/>
       <c r="I210" s="63"/>
-      <c r="J210" s="119" t="s">
+      <c r="J210" s="170" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8294,7 +8333,7 @@
       <c r="G211" s="63"/>
       <c r="H211" s="63"/>
       <c r="I211" s="63"/>
-      <c r="J211" s="119" t="s">
+      <c r="J211" s="170" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8314,7 +8353,7 @@
       <c r="G212" s="63"/>
       <c r="H212" s="63"/>
       <c r="I212" s="63"/>
-      <c r="J212" s="119"/>
+      <c r="J212" s="170"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="61"/>
@@ -8326,7 +8365,7 @@
       <c r="G213" s="63"/>
       <c r="H213" s="63"/>
       <c r="I213" s="63"/>
-      <c r="J213" s="119"/>
+      <c r="J213" s="170"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="61"/>
@@ -8338,7 +8377,7 @@
       <c r="G214" s="63"/>
       <c r="H214" s="63"/>
       <c r="I214" s="63"/>
-      <c r="J214" s="119"/>
+      <c r="J214" s="170"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="58"/>
@@ -8350,7 +8389,7 @@
       <c r="G215" s="60"/>
       <c r="H215" s="60"/>
       <c r="I215" s="60"/>
-      <c r="J215" s="119"/>
+      <c r="J215" s="170"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
@@ -8366,7 +8405,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
+      <c r="J216" s="175"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
@@ -8378,7 +8417,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
+      <c r="J217" s="175"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -8390,7 +8429,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
+      <c r="J218" s="175"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
@@ -8406,9 +8445,8 @@
       <c r="G219" s="2"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-    </row>
-    <row r="224" spans="1:10" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="J219" s="175"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B186:C186"/>
@@ -8423,10 +8461,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8436,314 +8474,327 @@
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="161" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="161" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="158" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="159" t="s">
+        <v>665</v>
+      </c>
+      <c r="K1" s="160" t="s">
+        <v>663</v>
+      </c>
+      <c r="L1" s="160" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="154" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="158"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="160">
+        <v>11</v>
+      </c>
+      <c r="L2" s="160">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="158"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="122"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="159"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="158"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="s">
+      <c r="E4" s="122"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="159"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="154" t="s">
         <v>493</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="158"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="167" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="159"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="154" t="s">
         <v>494</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="158"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="159"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="158"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="122"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="159"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="127" t="s">
         <v>496</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="128" t="s">
         <v>498</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="128" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="159"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="123"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="162"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="158"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="159"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="158"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="122"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="159"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="131" t="s">
         <v>503</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="124" t="s">
         <v>504</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="127">
-        <v>0</v>
-      </c>
-      <c r="F11" s="137">
-        <v>0</v>
-      </c>
-      <c r="G11" s="126">
+      <c r="E11" s="122">
+        <v>0</v>
+      </c>
+      <c r="F11" s="132">
+        <v>0</v>
+      </c>
+      <c r="G11" s="121">
         <f t="shared" ref="G11:G17" si="0">+E11+F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="160" t="s">
+      <c r="H11" s="123"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="163" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="131" t="s">
         <v>507</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="127">
-        <v>0</v>
-      </c>
-      <c r="F12" s="137">
-        <v>0</v>
-      </c>
-      <c r="G12" s="126">
+      <c r="E12" s="122">
+        <v>0</v>
+      </c>
+      <c r="F12" s="132">
+        <v>0</v>
+      </c>
+      <c r="G12" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="160" t="s">
+      <c r="H12" s="123"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="163" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="131" t="s">
         <v>510</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="127">
-        <v>0</v>
-      </c>
-      <c r="F13" s="137">
-        <v>0</v>
-      </c>
-      <c r="G13" s="126">
+      <c r="E13" s="122">
+        <v>0</v>
+      </c>
+      <c r="F13" s="132">
+        <v>0</v>
+      </c>
+      <c r="G13" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="160" t="s">
+      <c r="H13" s="123"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="163" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="131" t="s">
         <v>513</v>
       </c>
-      <c r="C14" s="129"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="127">
-        <v>0</v>
-      </c>
-      <c r="F14" s="137">
-        <v>0</v>
-      </c>
-      <c r="G14" s="126">
+      <c r="E14" s="122">
+        <v>0</v>
+      </c>
+      <c r="F14" s="132">
+        <v>0</v>
+      </c>
+      <c r="G14" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="160" t="s">
+      <c r="H14" s="123"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="163" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="131" t="s">
         <v>516</v>
       </c>
-      <c r="C15" s="129"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="127">
-        <v>0</v>
-      </c>
-      <c r="F15" s="137">
-        <v>0</v>
-      </c>
-      <c r="G15" s="126">
+      <c r="E15" s="122">
+        <v>0</v>
+      </c>
+      <c r="F15" s="132">
+        <v>0</v>
+      </c>
+      <c r="G15" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="128"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="160" t="s">
+      <c r="H15" s="123"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="163" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="131" t="s">
         <v>519</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="127">
-        <v>0</v>
-      </c>
-      <c r="F16" s="137">
-        <v>0</v>
-      </c>
-      <c r="G16" s="126">
+      <c r="E16" s="122">
+        <v>0</v>
+      </c>
+      <c r="F16" s="132">
+        <v>0</v>
+      </c>
+      <c r="G16" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="160" t="s">
+      <c r="H16" s="123"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="163" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8751,26 +8802,26 @@
       <c r="A17" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="131" t="s">
         <v>522</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="138">
-        <v>0</v>
-      </c>
-      <c r="E17" s="139">
-        <v>0</v>
-      </c>
-      <c r="F17" s="140">
-        <v>0</v>
-      </c>
-      <c r="G17" s="141">
+      <c r="C17" s="124"/>
+      <c r="D17" s="133">
+        <v>0</v>
+      </c>
+      <c r="E17" s="134">
+        <v>0</v>
+      </c>
+      <c r="F17" s="135">
+        <v>0</v>
+      </c>
+      <c r="G17" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="160" t="s">
+      <c r="H17" s="123"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="163" t="s">
         <v>523</v>
       </c>
     </row>
@@ -8782,78 +8833,78 @@
       <c r="C18" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="142">
+      <c r="D18" s="137">
         <f>SUM(D11:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="143">
+      <c r="E18" s="138">
         <f>SUM(E11:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="139">
         <f>SUM(F11:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="145">
+      <c r="G18" s="140">
         <f>SUM(G11:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="161"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="164"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="162"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="162"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="131" t="s">
         <v>527</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="124" t="s">
         <v>504</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="127">
-        <v>0</v>
-      </c>
-      <c r="F21" s="137">
-        <v>0</v>
-      </c>
-      <c r="G21" s="126">
+      <c r="E21" s="122">
+        <v>0</v>
+      </c>
+      <c r="F21" s="132">
+        <v>0</v>
+      </c>
+      <c r="G21" s="121">
         <f>+E21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="128"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="160" t="s">
+      <c r="H21" s="123"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="163" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8861,26 +8912,26 @@
       <c r="A22" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="131" t="s">
         <v>530</v>
       </c>
-      <c r="C22" s="129"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="127">
-        <v>0</v>
-      </c>
-      <c r="F22" s="137">
-        <v>0</v>
-      </c>
-      <c r="G22" s="126">
+      <c r="E22" s="122">
+        <v>0</v>
+      </c>
+      <c r="F22" s="132">
+        <v>0</v>
+      </c>
+      <c r="G22" s="121">
         <f>+E22+F22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="128"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="160" t="s">
+      <c r="H22" s="123"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="163" t="s">
         <v>531</v>
       </c>
     </row>
@@ -8888,26 +8939,26 @@
       <c r="A23" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="131" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="138">
-        <v>0</v>
-      </c>
-      <c r="E23" s="139">
-        <v>0</v>
-      </c>
-      <c r="F23" s="140">
-        <v>0</v>
-      </c>
-      <c r="G23" s="141">
+      <c r="C23" s="124"/>
+      <c r="D23" s="133">
+        <v>0</v>
+      </c>
+      <c r="E23" s="134">
+        <v>0</v>
+      </c>
+      <c r="F23" s="135">
+        <v>0</v>
+      </c>
+      <c r="G23" s="136">
         <f>+E23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="128"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="160" t="s">
+      <c r="H23" s="123"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="163" t="s">
         <v>534</v>
       </c>
     </row>
@@ -8915,120 +8966,120 @@
       <c r="A24" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B24" s="136"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="138">
+      <c r="B24" s="131"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="133">
         <f>SUM(D21:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="146">
+      <c r="E24" s="141">
         <f>SUM(E21:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="140">
+      <c r="F24" s="135">
         <f>SUM(F21:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="141">
+      <c r="G24" s="136">
         <f>SUM(G21:G23)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="128"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="160"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="163"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B25" s="147"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D25" s="142">
+      <c r="D25" s="137">
         <f>(D18+D24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="143">
+      <c r="E25" s="138">
         <f>+E18+E24</f>
         <v>0</v>
       </c>
-      <c r="F25" s="144">
+      <c r="F25" s="139">
         <f>+F18+F24</f>
         <v>0</v>
       </c>
-      <c r="G25" s="145">
+      <c r="G25" s="140">
         <f>+G18+G24</f>
         <v>0</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="163"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="129"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="163"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="162"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="162"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="131" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="127">
-        <v>0</v>
-      </c>
-      <c r="F29" s="130">
-        <v>0</v>
-      </c>
-      <c r="G29" s="126">
+      <c r="E29" s="122">
+        <v>0</v>
+      </c>
+      <c r="F29" s="125">
+        <v>0</v>
+      </c>
+      <c r="G29" s="121">
         <f t="shared" ref="G29:G34" si="1">+E29+F29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="128"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="160" t="s">
+      <c r="H29" s="123"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="163" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9036,26 +9087,26 @@
       <c r="A30" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="131" t="s">
         <v>543</v>
       </c>
-      <c r="C30" s="129"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="127">
-        <v>0</v>
-      </c>
-      <c r="F30" s="137">
-        <v>0</v>
-      </c>
-      <c r="G30" s="126">
+      <c r="E30" s="122">
+        <v>0</v>
+      </c>
+      <c r="F30" s="132">
+        <v>0</v>
+      </c>
+      <c r="G30" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="128"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="160" t="s">
+      <c r="H30" s="123"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="163" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9063,26 +9114,26 @@
       <c r="A31" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="131" t="s">
         <v>546</v>
       </c>
-      <c r="C31" s="129"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="127">
-        <v>0</v>
-      </c>
-      <c r="F31" s="137">
-        <v>0</v>
-      </c>
-      <c r="G31" s="126">
+      <c r="E31" s="122">
+        <v>0</v>
+      </c>
+      <c r="F31" s="132">
+        <v>0</v>
+      </c>
+      <c r="G31" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="128"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="160" t="s">
+      <c r="H31" s="123"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="163" t="s">
         <v>547</v>
       </c>
     </row>
@@ -9090,26 +9141,26 @@
       <c r="A32" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="131" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="129"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="127">
-        <v>0</v>
-      </c>
-      <c r="F32" s="137">
-        <v>0</v>
-      </c>
-      <c r="G32" s="126">
+      <c r="E32" s="122">
+        <v>0</v>
+      </c>
+      <c r="F32" s="132">
+        <v>0</v>
+      </c>
+      <c r="G32" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="128"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="160" t="s">
+      <c r="H32" s="123"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="163" t="s">
         <v>550</v>
       </c>
     </row>
@@ -9117,26 +9168,26 @@
       <c r="A33" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="131" t="s">
         <v>552</v>
       </c>
-      <c r="C33" s="129"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="127">
-        <v>0</v>
-      </c>
-      <c r="F33" s="137">
-        <v>0</v>
-      </c>
-      <c r="G33" s="126">
+      <c r="E33" s="122">
+        <v>0</v>
+      </c>
+      <c r="F33" s="132">
+        <v>0</v>
+      </c>
+      <c r="G33" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="128"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="160" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="163" t="s">
         <v>553</v>
       </c>
     </row>
@@ -9144,26 +9195,26 @@
       <c r="A34" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="131" t="s">
         <v>555</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="138">
-        <v>0</v>
-      </c>
-      <c r="E34" s="139">
-        <v>0</v>
-      </c>
-      <c r="F34" s="140">
-        <v>0</v>
-      </c>
-      <c r="G34" s="148">
+      <c r="C34" s="124"/>
+      <c r="D34" s="133">
+        <v>0</v>
+      </c>
+      <c r="E34" s="134">
+        <v>0</v>
+      </c>
+      <c r="F34" s="135">
+        <v>0</v>
+      </c>
+      <c r="G34" s="143">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="128"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="160" t="s">
+      <c r="H34" s="123"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="163" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9175,78 +9226,78 @@
       <c r="C35" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D35" s="142">
+      <c r="D35" s="137">
         <f>SUM(D29:D34)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="143">
+      <c r="E35" s="138">
         <f>SUM(E29:E34)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="144">
+      <c r="F35" s="139">
         <f>SUM(F29:F34)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="145">
+      <c r="G35" s="140">
         <f>SUM(G29:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="161"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="164"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="162"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="162"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B38" s="136" t="s">
+      <c r="B38" s="131" t="s">
         <v>560</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="124" t="s">
         <v>504</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="127">
-        <v>0</v>
-      </c>
-      <c r="F38" s="137">
-        <v>0</v>
-      </c>
-      <c r="G38" s="126">
+      <c r="E38" s="122">
+        <v>0</v>
+      </c>
+      <c r="F38" s="132">
+        <v>0</v>
+      </c>
+      <c r="G38" s="121">
         <f t="shared" ref="G38:G63" si="2">+E38+F38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="128"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="160" t="s">
+      <c r="H38" s="123"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="163" t="s">
         <v>561</v>
       </c>
     </row>
@@ -9254,26 +9305,26 @@
       <c r="A39" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B39" s="136" t="s">
+      <c r="B39" s="131" t="s">
         <v>563</v>
       </c>
-      <c r="C39" s="129"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="127">
-        <v>0</v>
-      </c>
-      <c r="F39" s="137">
-        <v>0</v>
-      </c>
-      <c r="G39" s="126">
+      <c r="E39" s="122">
+        <v>0</v>
+      </c>
+      <c r="F39" s="132">
+        <v>0</v>
+      </c>
+      <c r="G39" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H39" s="128"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="160" t="s">
+      <c r="H39" s="123"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="163" t="s">
         <v>564</v>
       </c>
     </row>
@@ -9281,26 +9332,26 @@
       <c r="A40" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="131" t="s">
         <v>566</v>
       </c>
-      <c r="C40" s="129"/>
+      <c r="C40" s="124"/>
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="127">
-        <v>0</v>
-      </c>
-      <c r="F40" s="137">
-        <v>0</v>
-      </c>
-      <c r="G40" s="126">
+      <c r="E40" s="122">
+        <v>0</v>
+      </c>
+      <c r="F40" s="132">
+        <v>0</v>
+      </c>
+      <c r="G40" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="128"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="160" t="s">
+      <c r="H40" s="123"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="163" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9308,26 +9359,26 @@
       <c r="A41" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="131" t="s">
         <v>569</v>
       </c>
-      <c r="C41" s="129"/>
+      <c r="C41" s="124"/>
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="127">
-        <v>0</v>
-      </c>
-      <c r="F41" s="137">
-        <v>0</v>
-      </c>
-      <c r="G41" s="126">
+      <c r="E41" s="122">
+        <v>0</v>
+      </c>
+      <c r="F41" s="132">
+        <v>0</v>
+      </c>
+      <c r="G41" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="128"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="160" t="s">
+      <c r="H41" s="123"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="163" t="s">
         <v>570</v>
       </c>
     </row>
@@ -9335,26 +9386,26 @@
       <c r="A42" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="C42" s="129"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="127">
-        <v>0</v>
-      </c>
-      <c r="F42" s="137">
-        <v>0</v>
-      </c>
-      <c r="G42" s="126">
+      <c r="E42" s="122">
+        <v>0</v>
+      </c>
+      <c r="F42" s="132">
+        <v>0</v>
+      </c>
+      <c r="G42" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="128"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="160" t="s">
+      <c r="H42" s="123"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="163" t="s">
         <v>573</v>
       </c>
     </row>
@@ -9362,26 +9413,26 @@
       <c r="A43" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="131" t="s">
         <v>575</v>
       </c>
-      <c r="C43" s="129"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="127">
-        <v>0</v>
-      </c>
-      <c r="F43" s="137">
-        <v>0</v>
-      </c>
-      <c r="G43" s="126">
+      <c r="E43" s="122">
+        <v>0</v>
+      </c>
+      <c r="F43" s="132">
+        <v>0</v>
+      </c>
+      <c r="G43" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="128"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="160" t="s">
+      <c r="H43" s="123"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="163" t="s">
         <v>576</v>
       </c>
     </row>
@@ -9389,26 +9440,26 @@
       <c r="A44" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="131" t="s">
         <v>578</v>
       </c>
-      <c r="C44" s="129"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="127">
-        <v>0</v>
-      </c>
-      <c r="F44" s="137">
-        <v>0</v>
-      </c>
-      <c r="G44" s="126">
+      <c r="E44" s="122">
+        <v>0</v>
+      </c>
+      <c r="F44" s="132">
+        <v>0</v>
+      </c>
+      <c r="G44" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H44" s="128"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="160" t="s">
+      <c r="H44" s="123"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="163" t="s">
         <v>579</v>
       </c>
     </row>
@@ -9416,26 +9467,26 @@
       <c r="A45" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="131" t="s">
         <v>581</v>
       </c>
-      <c r="C45" s="129"/>
+      <c r="C45" s="124"/>
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="127">
-        <v>0</v>
-      </c>
-      <c r="F45" s="137">
-        <v>0</v>
-      </c>
-      <c r="G45" s="126">
+      <c r="E45" s="122">
+        <v>0</v>
+      </c>
+      <c r="F45" s="132">
+        <v>0</v>
+      </c>
+      <c r="G45" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H45" s="128"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="160" t="s">
+      <c r="H45" s="123"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="163" t="s">
         <v>582</v>
       </c>
     </row>
@@ -9443,26 +9494,26 @@
       <c r="A46" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="131" t="s">
         <v>584</v>
       </c>
-      <c r="C46" s="129"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="127">
-        <v>0</v>
-      </c>
-      <c r="F46" s="137">
-        <v>0</v>
-      </c>
-      <c r="G46" s="126">
+      <c r="E46" s="122">
+        <v>0</v>
+      </c>
+      <c r="F46" s="132">
+        <v>0</v>
+      </c>
+      <c r="G46" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H46" s="128"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="160" t="s">
+      <c r="H46" s="123"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="163" t="s">
         <v>585</v>
       </c>
     </row>
@@ -9470,26 +9521,26 @@
       <c r="A47" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B47" s="136" t="s">
+      <c r="B47" s="131" t="s">
         <v>587</v>
       </c>
-      <c r="C47" s="129"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="127">
-        <v>0</v>
-      </c>
-      <c r="F47" s="137">
-        <v>0</v>
-      </c>
-      <c r="G47" s="126">
+      <c r="E47" s="122">
+        <v>0</v>
+      </c>
+      <c r="F47" s="132">
+        <v>0</v>
+      </c>
+      <c r="G47" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H47" s="128"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="160" t="s">
+      <c r="H47" s="123"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="163" t="s">
         <v>588</v>
       </c>
     </row>
@@ -9497,26 +9548,26 @@
       <c r="A48" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="131" t="s">
         <v>590</v>
       </c>
-      <c r="C48" s="129"/>
+      <c r="C48" s="124"/>
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="127">
-        <v>0</v>
-      </c>
-      <c r="F48" s="137">
-        <v>0</v>
-      </c>
-      <c r="G48" s="126">
+      <c r="E48" s="122">
+        <v>0</v>
+      </c>
+      <c r="F48" s="132">
+        <v>0</v>
+      </c>
+      <c r="G48" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H48" s="128"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="160" t="s">
+      <c r="H48" s="123"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="163" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9524,26 +9575,26 @@
       <c r="A49" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B49" s="136" t="s">
+      <c r="B49" s="131" t="s">
         <v>593</v>
       </c>
-      <c r="C49" s="129"/>
+      <c r="C49" s="124"/>
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="127">
-        <v>0</v>
-      </c>
-      <c r="F49" s="137">
-        <v>0</v>
-      </c>
-      <c r="G49" s="126">
+      <c r="E49" s="122">
+        <v>0</v>
+      </c>
+      <c r="F49" s="132">
+        <v>0</v>
+      </c>
+      <c r="G49" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="128"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="160" t="s">
+      <c r="H49" s="123"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="163" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9551,26 +9602,26 @@
       <c r="A50" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B50" s="136" t="s">
+      <c r="B50" s="131" t="s">
         <v>596</v>
       </c>
-      <c r="C50" s="129"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="127">
-        <v>0</v>
-      </c>
-      <c r="F50" s="137">
-        <v>0</v>
-      </c>
-      <c r="G50" s="126">
+      <c r="E50" s="122">
+        <v>0</v>
+      </c>
+      <c r="F50" s="132">
+        <v>0</v>
+      </c>
+      <c r="G50" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H50" s="128"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="160" t="s">
+      <c r="H50" s="123"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="163" t="s">
         <v>597</v>
       </c>
     </row>
@@ -9578,26 +9629,26 @@
       <c r="A51" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B51" s="136" t="s">
+      <c r="B51" s="131" t="s">
         <v>599</v>
       </c>
-      <c r="C51" s="129"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="127">
-        <v>0</v>
-      </c>
-      <c r="F51" s="137">
-        <v>0</v>
-      </c>
-      <c r="G51" s="126">
+      <c r="E51" s="122">
+        <v>0</v>
+      </c>
+      <c r="F51" s="132">
+        <v>0</v>
+      </c>
+      <c r="G51" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H51" s="128"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="160" t="s">
+      <c r="H51" s="123"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="163" t="s">
         <v>600</v>
       </c>
     </row>
@@ -9605,26 +9656,26 @@
       <c r="A52" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B52" s="136" t="s">
+      <c r="B52" s="131" t="s">
         <v>602</v>
       </c>
-      <c r="C52" s="129"/>
+      <c r="C52" s="124"/>
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="127">
-        <v>0</v>
-      </c>
-      <c r="F52" s="137">
-        <v>0</v>
-      </c>
-      <c r="G52" s="126">
+      <c r="E52" s="122">
+        <v>0</v>
+      </c>
+      <c r="F52" s="132">
+        <v>0</v>
+      </c>
+      <c r="G52" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H52" s="128"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="160" t="s">
+      <c r="H52" s="123"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="163" t="s">
         <v>603</v>
       </c>
     </row>
@@ -9632,26 +9683,26 @@
       <c r="A53" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B53" s="136" t="s">
+      <c r="B53" s="131" t="s">
         <v>605</v>
       </c>
-      <c r="C53" s="129"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="127">
-        <v>0</v>
-      </c>
-      <c r="F53" s="137">
-        <v>0</v>
-      </c>
-      <c r="G53" s="126">
+      <c r="E53" s="122">
+        <v>0</v>
+      </c>
+      <c r="F53" s="132">
+        <v>0</v>
+      </c>
+      <c r="G53" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H53" s="128"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="160" t="s">
+      <c r="H53" s="123"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="163" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9659,26 +9710,26 @@
       <c r="A54" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B54" s="136" t="s">
+      <c r="B54" s="131" t="s">
         <v>608</v>
       </c>
-      <c r="C54" s="129"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="127">
-        <v>0</v>
-      </c>
-      <c r="F54" s="137">
-        <v>0</v>
-      </c>
-      <c r="G54" s="126">
+      <c r="E54" s="122">
+        <v>0</v>
+      </c>
+      <c r="F54" s="132">
+        <v>0</v>
+      </c>
+      <c r="G54" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H54" s="128"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="160" t="s">
+      <c r="H54" s="123"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="163" t="s">
         <v>609</v>
       </c>
     </row>
@@ -9686,26 +9737,26 @@
       <c r="A55" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B55" s="136" t="s">
+      <c r="B55" s="131" t="s">
         <v>611</v>
       </c>
-      <c r="C55" s="129"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="127">
-        <v>0</v>
-      </c>
-      <c r="F55" s="137">
-        <v>0</v>
-      </c>
-      <c r="G55" s="126">
+      <c r="E55" s="122">
+        <v>0</v>
+      </c>
+      <c r="F55" s="132">
+        <v>0</v>
+      </c>
+      <c r="G55" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H55" s="128"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="160" t="s">
+      <c r="H55" s="123"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="163" t="s">
         <v>612</v>
       </c>
     </row>
@@ -9713,26 +9764,26 @@
       <c r="A56" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="131" t="s">
         <v>614</v>
       </c>
-      <c r="C56" s="129"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="127">
-        <v>0</v>
-      </c>
-      <c r="F56" s="137">
-        <v>0</v>
-      </c>
-      <c r="G56" s="126">
+      <c r="E56" s="122">
+        <v>0</v>
+      </c>
+      <c r="F56" s="132">
+        <v>0</v>
+      </c>
+      <c r="G56" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H56" s="128"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="160" t="s">
+      <c r="H56" s="123"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="163" t="s">
         <v>615</v>
       </c>
     </row>
@@ -9740,26 +9791,26 @@
       <c r="A57" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="136" t="s">
+      <c r="B57" s="131" t="s">
         <v>617</v>
       </c>
-      <c r="C57" s="129"/>
+      <c r="C57" s="124"/>
       <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="127">
-        <v>0</v>
-      </c>
-      <c r="F57" s="137">
-        <v>0</v>
-      </c>
-      <c r="G57" s="126">
+      <c r="E57" s="122">
+        <v>0</v>
+      </c>
+      <c r="F57" s="132">
+        <v>0</v>
+      </c>
+      <c r="G57" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H57" s="128"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="160" t="s">
+      <c r="H57" s="123"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="163" t="s">
         <v>618</v>
       </c>
     </row>
@@ -9767,26 +9818,26 @@
       <c r="A58" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B58" s="136" t="s">
+      <c r="B58" s="131" t="s">
         <v>620</v>
       </c>
-      <c r="C58" s="129"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="127">
-        <v>0</v>
-      </c>
-      <c r="F58" s="137">
-        <v>0</v>
-      </c>
-      <c r="G58" s="126">
+      <c r="E58" s="122">
+        <v>0</v>
+      </c>
+      <c r="F58" s="132">
+        <v>0</v>
+      </c>
+      <c r="G58" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H58" s="128"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="160" t="s">
+      <c r="H58" s="123"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="163" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9794,26 +9845,26 @@
       <c r="A59" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B59" s="136" t="s">
+      <c r="B59" s="131" t="s">
         <v>623</v>
       </c>
-      <c r="C59" s="129"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="127">
-        <v>0</v>
-      </c>
-      <c r="F59" s="137">
-        <v>0</v>
-      </c>
-      <c r="G59" s="126">
+      <c r="E59" s="122">
+        <v>0</v>
+      </c>
+      <c r="F59" s="132">
+        <v>0</v>
+      </c>
+      <c r="G59" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H59" s="128"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="160" t="s">
+      <c r="H59" s="123"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="163" t="s">
         <v>624</v>
       </c>
     </row>
@@ -9821,26 +9872,26 @@
       <c r="A60" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B60" s="136" t="s">
+      <c r="B60" s="131" t="s">
         <v>626</v>
       </c>
-      <c r="C60" s="129"/>
+      <c r="C60" s="124"/>
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="127">
-        <v>0</v>
-      </c>
-      <c r="F60" s="137">
-        <v>0</v>
-      </c>
-      <c r="G60" s="126">
+      <c r="E60" s="122">
+        <v>0</v>
+      </c>
+      <c r="F60" s="132">
+        <v>0</v>
+      </c>
+      <c r="G60" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H60" s="128"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="160" t="s">
+      <c r="H60" s="123"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="163" t="s">
         <v>627</v>
       </c>
     </row>
@@ -9848,26 +9899,26 @@
       <c r="A61" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B61" s="136" t="s">
+      <c r="B61" s="131" t="s">
         <v>629</v>
       </c>
-      <c r="C61" s="129"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="127">
-        <v>0</v>
-      </c>
-      <c r="F61" s="137">
-        <v>0</v>
-      </c>
-      <c r="G61" s="126">
+      <c r="E61" s="122">
+        <v>0</v>
+      </c>
+      <c r="F61" s="132">
+        <v>0</v>
+      </c>
+      <c r="G61" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H61" s="128"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="160" t="s">
+      <c r="H61" s="123"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="163" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9875,26 +9926,26 @@
       <c r="A62" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B62" s="136" t="s">
+      <c r="B62" s="131" t="s">
         <v>632</v>
       </c>
-      <c r="C62" s="129"/>
+      <c r="C62" s="124"/>
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="127">
-        <v>0</v>
-      </c>
-      <c r="F62" s="137">
-        <v>0</v>
-      </c>
-      <c r="G62" s="126">
+      <c r="E62" s="122">
+        <v>0</v>
+      </c>
+      <c r="F62" s="132">
+        <v>0</v>
+      </c>
+      <c r="G62" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H62" s="128"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="160" t="s">
+      <c r="H62" s="123"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="163" t="s">
         <v>633</v>
       </c>
     </row>
@@ -9902,26 +9953,26 @@
       <c r="A63" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B63" s="136" t="s">
+      <c r="B63" s="131" t="s">
         <v>635</v>
       </c>
-      <c r="C63" s="129"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="127">
-        <v>0</v>
-      </c>
-      <c r="F63" s="137">
-        <v>0</v>
-      </c>
-      <c r="G63" s="126">
+      <c r="E63" s="122">
+        <v>0</v>
+      </c>
+      <c r="F63" s="132">
+        <v>0</v>
+      </c>
+      <c r="G63" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H63" s="128"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="160" t="s">
+      <c r="H63" s="123"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="163" t="s">
         <v>636</v>
       </c>
     </row>
@@ -9929,23 +9980,23 @@
       <c r="A64" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B64" s="129"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="138">
-        <v>0</v>
-      </c>
-      <c r="E64" s="139">
-        <v>0</v>
-      </c>
-      <c r="F64" s="150">
-        <v>0</v>
-      </c>
-      <c r="G64" s="141">
-        <v>0</v>
-      </c>
-      <c r="H64" s="128"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="162"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="133">
+        <v>0</v>
+      </c>
+      <c r="E64" s="134">
+        <v>0</v>
+      </c>
+      <c r="F64" s="145">
+        <v>0</v>
+      </c>
+      <c r="G64" s="136">
+        <v>0</v>
+      </c>
+      <c r="H64" s="123"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="165"/>
     </row>
     <row r="65" spans="1:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
@@ -9955,76 +10006,76 @@
       <c r="C65" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D65" s="142">
+      <c r="D65" s="137">
         <f>SUM(D38:D64)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="143">
+      <c r="E65" s="138">
         <f>SUM(E38:E64)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="144">
+      <c r="F65" s="139">
         <f>SUM(F38:F64)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="145">
+      <c r="G65" s="140">
         <f>SUM(G38:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="128"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="161"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="164"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="162"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="165"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B67" s="129"/>
-      <c r="C67" s="129"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="162"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="165"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B68" s="136" t="s">
+      <c r="B68" s="131" t="s">
         <v>641</v>
       </c>
-      <c r="C68" s="129"/>
+      <c r="C68" s="124"/>
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="127">
-        <v>0</v>
-      </c>
-      <c r="F68" s="137">
-        <v>0</v>
-      </c>
-      <c r="G68" s="126">
+      <c r="E68" s="122">
+        <v>0</v>
+      </c>
+      <c r="F68" s="132">
+        <v>0</v>
+      </c>
+      <c r="G68" s="121">
         <f>+E68+F68</f>
         <v>0</v>
       </c>
-      <c r="H68" s="128"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="160" t="s">
+      <c r="H68" s="123"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="163" t="s">
         <v>642</v>
       </c>
     </row>
@@ -10032,26 +10083,26 @@
       <c r="A69" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B69" s="136" t="s">
+      <c r="B69" s="131" t="s">
         <v>644</v>
       </c>
-      <c r="C69" s="129"/>
+      <c r="C69" s="124"/>
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="127">
-        <v>0</v>
-      </c>
-      <c r="F69" s="137">
-        <v>0</v>
-      </c>
-      <c r="G69" s="126">
+      <c r="E69" s="122">
+        <v>0</v>
+      </c>
+      <c r="F69" s="132">
+        <v>0</v>
+      </c>
+      <c r="G69" s="121">
         <f>+E69+F69</f>
         <v>0</v>
       </c>
-      <c r="H69" s="128"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="160" t="s">
+      <c r="H69" s="123"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="163" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10059,26 +10110,26 @@
       <c r="A70" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B70" s="136" t="s">
+      <c r="B70" s="131" t="s">
         <v>647</v>
       </c>
-      <c r="C70" s="129"/>
+      <c r="C70" s="124"/>
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="127">
-        <v>0</v>
-      </c>
-      <c r="F70" s="137">
-        <v>0</v>
-      </c>
-      <c r="G70" s="126">
+      <c r="E70" s="122">
+        <v>0</v>
+      </c>
+      <c r="F70" s="132">
+        <v>0</v>
+      </c>
+      <c r="G70" s="121">
         <f>+E70+F70</f>
         <v>0</v>
       </c>
-      <c r="H70" s="128"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="160" t="s">
+      <c r="H70" s="123"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="163" t="s">
         <v>648</v>
       </c>
     </row>
@@ -10086,26 +10137,26 @@
       <c r="A71" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B71" s="136" t="s">
+      <c r="B71" s="131" t="s">
         <v>650</v>
       </c>
-      <c r="C71" s="129"/>
+      <c r="C71" s="124"/>
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="127">
-        <v>0</v>
-      </c>
-      <c r="F71" s="137">
-        <v>0</v>
-      </c>
-      <c r="G71" s="126">
+      <c r="E71" s="122">
+        <v>0</v>
+      </c>
+      <c r="F71" s="132">
+        <v>0</v>
+      </c>
+      <c r="G71" s="121">
         <f>+E71+F71</f>
         <v>0</v>
       </c>
-      <c r="H71" s="128"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="160" t="s">
+      <c r="H71" s="123"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="163" t="s">
         <v>651</v>
       </c>
     </row>
@@ -10113,26 +10164,26 @@
       <c r="A72" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B72" s="136" t="s">
+      <c r="B72" s="131" t="s">
         <v>653</v>
       </c>
-      <c r="C72" s="129"/>
-      <c r="D72" s="138">
-        <v>0</v>
-      </c>
-      <c r="E72" s="139">
-        <v>0</v>
-      </c>
-      <c r="F72" s="151">
-        <v>0</v>
-      </c>
-      <c r="G72" s="141">
+      <c r="C72" s="124"/>
+      <c r="D72" s="133">
+        <v>0</v>
+      </c>
+      <c r="E72" s="134">
+        <v>0</v>
+      </c>
+      <c r="F72" s="146">
+        <v>0</v>
+      </c>
+      <c r="G72" s="136">
         <f>+E72+F72</f>
         <v>0</v>
       </c>
-      <c r="H72" s="128"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="160" t="s">
+      <c r="H72" s="123"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="163" t="s">
         <v>654</v>
       </c>
     </row>
@@ -10144,37 +10195,37 @@
       <c r="C73" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D73" s="142">
+      <c r="D73" s="137">
         <f>SUM(D68:D72)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="143">
+      <c r="E73" s="138">
         <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="144">
+      <c r="F73" s="139">
         <f>SUM(F68:F72)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="145">
+      <c r="G73" s="140">
         <f>SUM(G68:G72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="128"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="164"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="167"/>
     </row>
     <row r="74" spans="1:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="158"/>
+      <c r="A74" s="124"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="121"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="159"/>
     </row>
     <row r="75" spans="1:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
@@ -10182,25 +10233,25 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="142">
+      <c r="D75" s="137">
         <f>+D35+D65+D73</f>
         <v>0</v>
       </c>
-      <c r="E75" s="143">
+      <c r="E75" s="138">
         <f>+E35+E65+E73</f>
         <v>0</v>
       </c>
-      <c r="F75" s="144">
+      <c r="F75" s="139">
         <f>+F35+F65+F73</f>
         <v>0</v>
       </c>
-      <c r="G75" s="145">
+      <c r="G75" s="140">
         <f>+G35+G65+G73</f>
         <v>0</v>
       </c>
-      <c r="H75" s="128"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="164"/>
+      <c r="H75" s="123"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="167"/>
     </row>
     <row r="76" spans="1:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
@@ -10208,59 +10259,59 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="143">
+      <c r="D76" s="137"/>
+      <c r="E76" s="138">
         <f>+E25-E75</f>
         <v>0</v>
       </c>
-      <c r="F76" s="144">
+      <c r="F76" s="139">
         <f>+F25-F75</f>
         <v>0</v>
       </c>
-      <c r="G76" s="145">
+      <c r="G76" s="140">
         <f>+G25-G75</f>
         <v>0</v>
       </c>
-      <c r="H76" s="128"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="164"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="167"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="128"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="158"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="123"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="159"/>
     </row>
     <row r="78" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B78" s="129"/>
-      <c r="C78" s="129"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="139">
-        <v>0</v>
-      </c>
-      <c r="F78" s="140">
-        <v>0</v>
-      </c>
-      <c r="G78" s="141">
+      <c r="E78" s="134">
+        <v>0</v>
+      </c>
+      <c r="F78" s="135">
+        <v>0</v>
+      </c>
+      <c r="G78" s="136">
         <f>+E78+F78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="128"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="158"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="159"/>
     </row>
     <row r="79" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
@@ -10270,49 +10321,49 @@
       <c r="C79" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D79" s="153">
+      <c r="D79" s="148">
         <f>(D25-D75)</f>
         <v>0</v>
       </c>
-      <c r="E79" s="154">
+      <c r="E79" s="149">
         <f>+E76+E78</f>
         <v>0</v>
       </c>
-      <c r="F79" s="155">
+      <c r="F79" s="150">
         <f>+F76+F78</f>
         <v>0</v>
       </c>
-      <c r="G79" s="156">
+      <c r="G79" s="151">
         <f>SUM(G76:G78)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="128"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="165"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="168"/>
     </row>
     <row r="80" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="153"/>
-      <c r="E80" s="154"/>
-      <c r="F80" s="155"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="128"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="165"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="151"/>
+      <c r="H80" s="123"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="168"/>
     </row>
     <row r="81" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="154"/>
-      <c r="F81" s="157"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="155"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="165"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="152"/>
+      <c r="G81" s="151"/>
+      <c r="H81" s="150"/>
+      <c r="I81" s="151"/>
+      <c r="J81" s="168"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -10328,7 +10379,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="169"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -10340,7 +10391,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="169"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -10352,7 +10403,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="169"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -10368,9 +10419,10 @@
       <c r="G85" s="2"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>